--- a/medicine/Psychotrope/Brasserie_Dupont/Brasserie_Dupont.xlsx
+++ b/medicine/Psychotrope/Brasserie_Dupont/Brasserie_Dupont.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Brasserie Dupont est une entreprise belge établie à Tourpes dans la commune de Leuze-en-Hainaut, au centre du Hainaut occidental en Belgique[1].
+La Brasserie Dupont est une entreprise belge établie à Tourpes dans la commune de Leuze-en-Hainaut, au centre du Hainaut occidental en Belgique.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La brasserie Dupont est installée depuis 1844[2] dans la ferme Rimaux-Deridder datant de 1759[3]. 
-L'entreprise exporte 40 % des 30 000 hl[4] (hectolitres) produits annuellement dans une trentaine de pays (France, États-Unis, Italie, Espagne, Japon…)[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La brasserie Dupont est installée depuis 1844 dans la ferme Rimaux-Deridder datant de 1759. 
+L'entreprise exporte 40 % des 30 000 hl (hectolitres) produits annuellement dans une trentaine de pays (France, États-Unis, Italie, Espagne, Japon…).
 La brasserie fait partie de l'association brassicole Belgian Family Brewers.
 </t>
         </is>
